--- a/excel sheet/statistique.xlsx
+++ b/excel sheet/statistique.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
   <si>
     <t>title</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>extrada</t>
   </si>
 </sst>
 </file>
@@ -348,140 +351,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+      <selection activeCell="F17" sqref="F16:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16">
         <v>15</v>
+      </c>
+      <c r="C16">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/excel sheet/statistique.xlsx
+++ b/excel sheet/statistique.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F16:F17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
